--- a/Code/Results/Cases/Case_2_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8406685575036192</v>
+        <v>0.2706980058241015</v>
       </c>
       <c r="C2">
-        <v>0.1218277814180198</v>
+        <v>0.0764738982412041</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.340325415032396</v>
+        <v>0.1747333793427259</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1797194417136865</v>
+        <v>0.3607337375789115</v>
       </c>
       <c r="H2">
-        <v>0.2057763689129999</v>
+        <v>0.5426354195498106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.866150465475414</v>
+        <v>0.2708818014527594</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5862862811757665</v>
+        <v>0.210527886617335</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7604427005244077</v>
+        <v>1.745519021933845</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7343255897039285</v>
+        <v>0.2368566378903552</v>
       </c>
       <c r="C3">
-        <v>0.1141252500603755</v>
+        <v>0.07382616152859356</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2968224391940524</v>
+        <v>0.1640378975501591</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1838247882269641</v>
+        <v>0.366148654094026</v>
       </c>
       <c r="H3">
-        <v>0.2137541316048015</v>
+        <v>0.5488033975287294</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7630821897157318</v>
+        <v>0.2371206502836003</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5079952881435048</v>
+        <v>0.1878383745688694</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7855064541849401</v>
+        <v>1.769688185866741</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6689973160508202</v>
+        <v>0.2160200724008519</v>
       </c>
       <c r="C4">
-        <v>0.1094148404671103</v>
+        <v>0.07220194998424034</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2706322656075315</v>
+        <v>0.1576042791535244</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1870900787071044</v>
+        <v>0.3697910100583641</v>
       </c>
       <c r="H4">
-        <v>0.2191218280596843</v>
+        <v>0.5528554810583941</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.699714424052118</v>
+        <v>0.2162950458188675</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.460220335946623</v>
+        <v>0.1739473171681141</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8034490623481076</v>
+        <v>1.785748541313573</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6423602289768553</v>
+        <v>0.2075150131102248</v>
       </c>
       <c r="C5">
-        <v>0.1074996574323208</v>
+        <v>0.07154051673494166</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2600773564610108</v>
+        <v>0.1550158844627987</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1885991309956836</v>
+        <v>0.3713550000765906</v>
       </c>
       <c r="H5">
-        <v>0.2214234190238606</v>
+        <v>0.5545733546926428</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6738644811462109</v>
+        <v>0.2077848301140364</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.440813998080209</v>
+        <v>0.1682968250009438</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8113762214789517</v>
+        <v>1.792599807873103</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6379360438552624</v>
+        <v>0.2061019258374301</v>
       </c>
       <c r="C6">
-        <v>0.1071818935365485</v>
+        <v>0.07143071516034638</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2583314652426409</v>
+        <v>0.1545880923276428</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1888602339945393</v>
+        <v>0.3716195085395526</v>
       </c>
       <c r="H6">
-        <v>0.2218123866281871</v>
+        <v>0.5548626298008976</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6695703132426161</v>
+        <v>0.2063703055892319</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4375950149567913</v>
+        <v>0.1673591848023932</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8127289323111171</v>
+        <v>1.793755959951774</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6686381497016498</v>
+        <v>0.215905426107895</v>
       </c>
       <c r="C7">
-        <v>0.1093889945748217</v>
+        <v>0.07219302776964298</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2704894583296991</v>
+        <v>0.1575692363608212</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1871097192521738</v>
+        <v>0.3698117800788339</v>
       </c>
       <c r="H7">
-        <v>0.2191524105802856</v>
+        <v>0.5528783791744729</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6993659200109477</v>
+        <v>0.2161803689399875</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4599583783652577</v>
+        <v>0.1738710711554532</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8035535133968921</v>
+        <v>1.785839699163247</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8040040735825187</v>
+        <v>0.2590418247684738</v>
       </c>
       <c r="C8">
-        <v>0.1191677419993766</v>
+        <v>0.07556068428037577</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3252093280991915</v>
+        <v>0.171017755607032</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1809749953979534</v>
+        <v>0.3625347942994424</v>
       </c>
       <c r="H8">
-        <v>0.2084273524093021</v>
+        <v>0.5447071548209479</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8306260196323905</v>
+        <v>0.2592612302739496</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5592225914391733</v>
+        <v>0.2026961931559939</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7685383071767689</v>
+        <v>1.753599057122244</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.069539105343779</v>
+        <v>0.3431531266114121</v>
       </c>
       <c r="C9">
-        <v>0.138516222900833</v>
+        <v>0.08217404180393828</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.437283329830322</v>
+        <v>0.1984596506617038</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1752704285686448</v>
+        <v>0.350791474204577</v>
       </c>
       <c r="H9">
-        <v>0.1912992345512308</v>
+        <v>0.5307853107632354</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.087672168490826</v>
+        <v>0.3429594564453282</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7568174110588828</v>
+        <v>0.2595425812895442</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7213960817612843</v>
+        <v>1.70007334564886</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.265212364797321</v>
+        <v>0.404636468453532</v>
       </c>
       <c r="C10">
-        <v>0.1528709769632428</v>
+        <v>0.08703562964662126</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5234823856304089</v>
+        <v>0.2192898401272174</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1755479625733685</v>
+        <v>0.3437137060528528</v>
       </c>
       <c r="H10">
-        <v>0.1813583626666286</v>
+        <v>0.5218379958225654</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.27678487043994</v>
+        <v>0.403953316482017</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9046684571589765</v>
+        <v>0.3015071444378918</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.701732282079135</v>
+        <v>1.666680296470702</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.354485235001221</v>
+        <v>0.4325347098079249</v>
       </c>
       <c r="C11">
-        <v>0.1594400251949679</v>
+        <v>0.08924729671923615</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5637636266237109</v>
+        <v>0.2289149281233946</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1767895774692363</v>
+        <v>0.340832487017515</v>
       </c>
       <c r="H11">
-        <v>0.1774723529870741</v>
+        <v>0.5180457397682687</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.362989659553023</v>
+        <v>0.4315883729234997</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9727249091635173</v>
+        <v>0.3206423924055173</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6964760558379055</v>
+        <v>1.652781385490272</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.388339173329115</v>
+        <v>0.4430883848327483</v>
       </c>
       <c r="C12">
-        <v>0.1619338945833135</v>
+        <v>0.09008475316957743</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5791914467860622</v>
+        <v>0.2325814222930376</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1774331401204634</v>
+        <v>0.3397902901737098</v>
       </c>
       <c r="H12">
-        <v>0.1760979193267502</v>
+        <v>0.5166496798771547</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.395668621775513</v>
+        <v>0.4420365541559192</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9986299570580144</v>
+        <v>0.3278949305839376</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6950554909791862</v>
+        <v>1.647704357887392</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.381045795042098</v>
+        <v>0.4408159511650922</v>
       </c>
       <c r="C13">
-        <v>0.1613965025353821</v>
+        <v>0.08990439543099171</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5758606986616357</v>
+        <v>0.2317908095304659</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1772866091945247</v>
+        <v>0.3400125700151904</v>
       </c>
       <c r="H13">
-        <v>0.1763895150974975</v>
+        <v>0.5169485676770407</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.388628899589008</v>
+        <v>0.4397870998906228</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9930445874156675</v>
+        <v>0.3263326819134846</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6953354343256137</v>
+        <v>1.648789498923065</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.357269387051758</v>
+        <v>0.4334031865321037</v>
       </c>
       <c r="C14">
-        <v>0.1596450665500981</v>
+        <v>0.08931619623932363</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5650292684440572</v>
+        <v>0.2292161370672972</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1768389710981353</v>
+        <v>0.3407457646159813</v>
       </c>
       <c r="H14">
-        <v>0.1773572975160249</v>
+        <v>0.5179300836015202</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.365677416061374</v>
+        <v>0.4324482875060482</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9748533438562745</v>
+        <v>0.3212389346187834</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6963475290966983</v>
+        <v>1.652359961391596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.34271226863666</v>
+        <v>0.4288612321489325</v>
       </c>
       <c r="C15">
-        <v>0.1585731055667736</v>
+        <v>0.08895589819276495</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5584180252784705</v>
+        <v>0.2276419056944832</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1765877614534901</v>
+        <v>0.3412012356973477</v>
       </c>
       <c r="H15">
-        <v>0.1779629132329887</v>
+        <v>0.5185364983011809</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.351623839222725</v>
+        <v>0.4279508714529925</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9637286554891062</v>
+        <v>0.3181197027628073</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.69704289341216</v>
+        <v>1.654571232872286</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.259384314531076</v>
+        <v>0.4028117762244392</v>
       </c>
       <c r="C16">
-        <v>0.1524425179400879</v>
+        <v>0.08689108821862135</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5208731344114526</v>
+        <v>0.218663840752626</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1754903555070086</v>
+        <v>0.343908827534122</v>
       </c>
       <c r="H16">
-        <v>0.1816255965165254</v>
+        <v>0.5220914229116573</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.271155547845893</v>
+        <v>0.4021450082508125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9002384413496003</v>
+        <v>0.3002575162334864</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7021533259705421</v>
+        <v>1.667614653661815</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.208339388684749</v>
+        <v>0.3868127096670264</v>
       </c>
       <c r="C17">
-        <v>0.1486920731633177</v>
+        <v>0.08562437204332696</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4981283919750723</v>
+        <v>0.2131944844661859</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1751117803080362</v>
+        <v>0.3456566743766274</v>
       </c>
       <c r="H17">
-        <v>0.1840393567740009</v>
+        <v>0.5243434509702709</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.221842720922496</v>
+        <v>0.3862849967367765</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.861506597895719</v>
+        <v>0.289311198469214</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7062604282652387</v>
+        <v>1.675947529538576</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.179003484716674</v>
+        <v>0.3776038375491169</v>
       </c>
       <c r="C18">
-        <v>0.1465385415976073</v>
+        <v>0.08489580451804102</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4851455040910366</v>
+        <v>0.2100626986275884</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1749981881292868</v>
+        <v>0.346693839321226</v>
       </c>
       <c r="H18">
-        <v>0.1854872050579317</v>
+        <v>0.5256649160901858</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.193495271990315</v>
+        <v>0.3771522919978736</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8393029960079517</v>
+        <v>0.2830194405258766</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7089674332007263</v>
+        <v>1.680861939437662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.169074620409702</v>
+        <v>0.3744847508212104</v>
       </c>
       <c r="C19">
-        <v>0.1458099948728915</v>
+        <v>0.08464912861265361</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4807661758233408</v>
+        <v>0.2090047353246973</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1749772344320135</v>
+        <v>0.3470504701625003</v>
       </c>
       <c r="H19">
-        <v>0.1859874781905262</v>
+        <v>0.5261168335465669</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.183899775015249</v>
+        <v>0.3740583394435077</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8317973875624745</v>
+        <v>0.2808898962028437</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7099420255617588</v>
+        <v>1.682546738960582</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.213770670423457</v>
+        <v>0.3885165283534207</v>
       </c>
       <c r="C20">
-        <v>0.1490909343062583</v>
+        <v>0.08575921518480811</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5005391896242202</v>
+        <v>0.2137752518449432</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1751412093324163</v>
+        <v>0.3454673154440542</v>
       </c>
       <c r="H20">
-        <v>0.1837762084544678</v>
+        <v>0.5241010113222799</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.227090433306074</v>
+        <v>0.3879744074875191</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8656218860458509</v>
+        <v>0.2904760109191216</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7057872673899652</v>
+        <v>1.675047896501425</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.36425169471886</v>
+        <v>0.4355807925996658</v>
       </c>
       <c r="C21">
-        <v>0.1601593284956806</v>
+        <v>0.08948896661148353</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5682058231522547</v>
+        <v>0.2299717906703123</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1769656394358705</v>
+        <v>0.3405290801318372</v>
       </c>
       <c r="H21">
-        <v>0.1770703538531038</v>
+        <v>0.5176407032335106</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.372417789902443</v>
+        <v>0.4346043303048361</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9801927717913301</v>
+        <v>0.3227349177245316</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6960344592517345</v>
+        <v>1.651306173452355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.462886559094187</v>
+        <v>0.466276880103635</v>
       </c>
       <c r="C22">
-        <v>0.1674303335149716</v>
+        <v>0.09192622904549808</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6134559062148099</v>
+        <v>0.2406836422463243</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1791753505091478</v>
+        <v>0.337586525823383</v>
       </c>
       <c r="H22">
-        <v>0.173256646651339</v>
+        <v>0.5136515921806648</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.467607156598575</v>
+        <v>0.4649825589042393</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.055859673788554</v>
+        <v>0.3438554459800613</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6930022527497783</v>
+        <v>1.636875034319758</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.410213231832842</v>
+        <v>0.4498997735099408</v>
       </c>
       <c r="C23">
-        <v>0.1635460116518033</v>
+        <v>0.09062547056808512</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5892039962586324</v>
+        <v>0.2349548839650595</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1778983663035234</v>
+        <v>0.3391308966240132</v>
       </c>
       <c r="H23">
-        <v>0.1752380684246972</v>
+        <v>0.5157593228132242</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.416780216997807</v>
+        <v>0.4487782113525896</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.015396113007597</v>
+        <v>0.3325796231424647</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6943010878884195</v>
+        <v>1.644477742599207</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.211315156041138</v>
+        <v>0.3877462655084685</v>
       </c>
       <c r="C24">
-        <v>0.1489106009845074</v>
+        <v>0.08569825357876937</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4994489787172967</v>
+        <v>0.2135126476211653</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1751275813328519</v>
+        <v>0.3455528240048551</v>
       </c>
       <c r="H24">
-        <v>0.1838949908920569</v>
+        <v>0.5242105349818047</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.224717933443287</v>
+        <v>0.3872106702347651</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8637611667922727</v>
+        <v>0.2899493947649603</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7060001093500006</v>
+        <v>1.675454235222801</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9976431062351026</v>
+        <v>0.3204522763018076</v>
       </c>
       <c r="C25">
-        <v>0.1332601130944511</v>
+        <v>0.08038425704698682</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4063597494013891</v>
+        <v>0.1909196774685711</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1760755187247938</v>
+        <v>0.3536968416154025</v>
       </c>
       <c r="H25">
-        <v>0.1954887309445965</v>
+        <v>0.5343265486155957</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.018125206769184</v>
+        <v>0.320402977929632</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7029604390808757</v>
+        <v>0.2441293916629803</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7316610001142578</v>
+        <v>1.713513143224333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2706980058241015</v>
+        <v>0.8406685575033919</v>
       </c>
       <c r="C2">
-        <v>0.0764738982412041</v>
+        <v>0.1218277814177924</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1747333793427259</v>
+        <v>0.3403254150323747</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3607337375789115</v>
+        <v>0.1797194417136225</v>
       </c>
       <c r="H2">
-        <v>0.5426354195498106</v>
+        <v>0.2057763689129928</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2708818014527594</v>
+        <v>0.8661504654753287</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.210527886617335</v>
+        <v>0.5862862811757594</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.745519021933845</v>
+        <v>0.7604427005243224</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2368566378903552</v>
+        <v>0.7343255897037864</v>
       </c>
       <c r="C3">
-        <v>0.07382616152859356</v>
+        <v>0.1141252500605532</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1640378975501591</v>
+        <v>0.296822439194024</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.366148654094026</v>
+        <v>0.1838247882269286</v>
       </c>
       <c r="H3">
-        <v>0.5488033975287294</v>
+        <v>0.2137541316046878</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2371206502836003</v>
+        <v>0.7630821897156324</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1878383745688694</v>
+        <v>0.5079952881435048</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.769688185866741</v>
+        <v>0.785506454184997</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2160200724008519</v>
+        <v>0.6689973160507066</v>
       </c>
       <c r="C4">
-        <v>0.07220194998424034</v>
+        <v>0.1094148404671174</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1576042791535244</v>
+        <v>0.2706322656075599</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3697910100583641</v>
+        <v>0.1870900787071044</v>
       </c>
       <c r="H4">
-        <v>0.5528554810583941</v>
+        <v>0.2191218280596843</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2162950458188675</v>
+        <v>0.6997144240522175</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1739473171681141</v>
+        <v>0.460220335946623</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.785748541313573</v>
+        <v>0.8034490623481219</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2075150131102248</v>
+        <v>0.6423602289769974</v>
       </c>
       <c r="C5">
-        <v>0.07154051673494166</v>
+        <v>0.1074996574327756</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1550158844627987</v>
+        <v>0.2600773564610037</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3713550000765906</v>
+        <v>0.1885991309956196</v>
       </c>
       <c r="H5">
-        <v>0.5545733546926428</v>
+        <v>0.2214234190237363</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2077848301140364</v>
+        <v>0.6738644811461825</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1682968250009438</v>
+        <v>0.4408139980802019</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.792599807873103</v>
+        <v>0.8113762214788593</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2061019258374301</v>
+        <v>0.6379360438552624</v>
       </c>
       <c r="C6">
-        <v>0.07143071516034638</v>
+        <v>0.107181893536783</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1545880923276428</v>
+        <v>0.2583314652426481</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3716195085395526</v>
+        <v>0.1888602339945322</v>
       </c>
       <c r="H6">
-        <v>0.5548626298008976</v>
+        <v>0.2218123866281836</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2063703055892319</v>
+        <v>0.6695703132426161</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1673591848023932</v>
+        <v>0.4375950149568055</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.793755959951774</v>
+        <v>0.81272893231111</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.215905426107895</v>
+        <v>0.6686381497017067</v>
       </c>
       <c r="C7">
-        <v>0.07219302776964298</v>
+        <v>0.109388994574843</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1575692363608212</v>
+        <v>0.270489458329692</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3698117800788339</v>
+        <v>0.1871097192521667</v>
       </c>
       <c r="H7">
-        <v>0.5528783791744729</v>
+        <v>0.2191524105802927</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2161803689399875</v>
+        <v>0.6993659200110471</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1738710711554532</v>
+        <v>0.4599583783652506</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.785839699163247</v>
+        <v>0.8035535133969773</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2590418247684738</v>
+        <v>0.8040040735825187</v>
       </c>
       <c r="C8">
-        <v>0.07556068428037577</v>
+        <v>0.119167741999135</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.171017755607032</v>
+        <v>0.3252093280992199</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.3625347942994424</v>
+        <v>0.1809749953979534</v>
       </c>
       <c r="H8">
-        <v>0.5447071548209479</v>
+        <v>0.2084273524093092</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2592612302739496</v>
+        <v>0.8306260196325042</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2026961931559939</v>
+        <v>0.5592225914391591</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.753599057122244</v>
+        <v>0.7685383071767689</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3431531266114121</v>
+        <v>1.069539105343921</v>
       </c>
       <c r="C9">
-        <v>0.08217404180393828</v>
+        <v>0.1385162229012877</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1984596506617038</v>
+        <v>0.4372833298303433</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.350791474204577</v>
+        <v>0.1752704285687514</v>
       </c>
       <c r="H9">
-        <v>0.5307853107632354</v>
+        <v>0.1912992345512237</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3429594564453282</v>
+        <v>1.087672168490741</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2595425812895442</v>
+        <v>0.7568174110588899</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.70007334564886</v>
+        <v>0.7213960817612559</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.404636468453532</v>
+        <v>1.26521236479735</v>
       </c>
       <c r="C10">
-        <v>0.08703562964662126</v>
+        <v>0.1528709769632002</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2192898401272174</v>
+        <v>0.523482385630416</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.3437137060528528</v>
+        <v>0.1755479625733045</v>
       </c>
       <c r="H10">
-        <v>0.5218379958225654</v>
+        <v>0.1813583626666286</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.403953316482017</v>
+        <v>1.27678487043994</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3015071444378918</v>
+        <v>0.9046684571589623</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.666680296470702</v>
+        <v>0.701732282079135</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4325347098079249</v>
+        <v>1.354485235001306</v>
       </c>
       <c r="C11">
-        <v>0.08924729671923615</v>
+        <v>0.1594400251947263</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2289149281233946</v>
+        <v>0.5637636266237109</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.340832487017515</v>
+        <v>0.1767895774692505</v>
       </c>
       <c r="H11">
-        <v>0.5180457397682687</v>
+        <v>0.1774723529870741</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4315883729234997</v>
+        <v>1.362989659553023</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3206423924055173</v>
+        <v>0.9727249091635102</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.652781385490272</v>
+        <v>0.6964760558379055</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4430883848327483</v>
+        <v>1.388339173328973</v>
       </c>
       <c r="C12">
-        <v>0.09008475316957743</v>
+        <v>0.1619338945832283</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2325814222930376</v>
+        <v>0.5791914467860551</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.3397902901737098</v>
+        <v>0.1774331401204563</v>
       </c>
       <c r="H12">
-        <v>0.5166496798771547</v>
+        <v>0.1760979193267502</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4420365541559192</v>
+        <v>1.3956686217754</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3278949305839376</v>
+        <v>0.9986299570580215</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.647704357887392</v>
+        <v>0.6950554909792146</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4408159511650922</v>
+        <v>1.381045795041956</v>
       </c>
       <c r="C13">
-        <v>0.08990439543099171</v>
+        <v>0.1613965025354247</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2317908095304659</v>
+        <v>0.5758606986616144</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.3400125700151904</v>
+        <v>0.1772866091945176</v>
       </c>
       <c r="H13">
-        <v>0.5169485676770407</v>
+        <v>0.1763895150974903</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4397870998906228</v>
+        <v>1.388628899589008</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3263326819134846</v>
+        <v>0.9930445874156675</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.648789498923065</v>
+        <v>0.6953354343256279</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4334031865321037</v>
+        <v>1.357269387051787</v>
       </c>
       <c r="C14">
-        <v>0.08931619623932363</v>
+        <v>0.1596450665495865</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2292161370672972</v>
+        <v>0.5650292684440643</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3407457646159813</v>
+        <v>0.1768389710981566</v>
       </c>
       <c r="H14">
-        <v>0.5179300836015202</v>
+        <v>0.1773572975161386</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4324482875060482</v>
+        <v>1.365677416061345</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3212389346187834</v>
+        <v>0.9748533438562674</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.652359961391596</v>
+        <v>0.6963475290966841</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4288612321489325</v>
+        <v>1.342712268636546</v>
       </c>
       <c r="C15">
-        <v>0.08895589819276495</v>
+        <v>0.1585731055665889</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2276419056944832</v>
+        <v>0.558418025278506</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.3412012356973477</v>
+        <v>0.1765877614535043</v>
       </c>
       <c r="H15">
-        <v>0.5185364983011809</v>
+        <v>0.1779629132329816</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4279508714529925</v>
+        <v>1.351623839222839</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3181197027628073</v>
+        <v>0.9637286554890991</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.654571232872286</v>
+        <v>0.6970428934122026</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4028117762244392</v>
+        <v>1.259384314531189</v>
       </c>
       <c r="C16">
-        <v>0.08689108821862135</v>
+        <v>0.1524425179403295</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.218663840752626</v>
+        <v>0.5208731344114312</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.343908827534122</v>
+        <v>0.1754903555069589</v>
       </c>
       <c r="H16">
-        <v>0.5220914229116573</v>
+        <v>0.1816255965164117</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4021450082508125</v>
+        <v>1.271155547845723</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3002575162334864</v>
+        <v>0.9002384413495932</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.667614653661815</v>
+        <v>0.7021533259704853</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3868127096670264</v>
+        <v>1.208339388684749</v>
       </c>
       <c r="C17">
-        <v>0.08562437204332696</v>
+        <v>0.1486920731633319</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2131944844661859</v>
+        <v>0.4981283919750368</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.3456566743766274</v>
+        <v>0.1751117803081073</v>
       </c>
       <c r="H17">
-        <v>0.5243434509702709</v>
+        <v>0.1840393567739866</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3862849967367765</v>
+        <v>1.221842720922524</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.289311198469214</v>
+        <v>0.8615065978957119</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.675947529538576</v>
+        <v>0.7062604282652245</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3776038375491169</v>
+        <v>1.17900348471656</v>
       </c>
       <c r="C18">
-        <v>0.08489580451804102</v>
+        <v>0.1465385415978346</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2100626986275884</v>
+        <v>0.485145504091065</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.346693839321226</v>
+        <v>0.1749981881293436</v>
       </c>
       <c r="H18">
-        <v>0.5256649160901858</v>
+        <v>0.1854872050579317</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3771522919978736</v>
+        <v>1.193495271990287</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2830194405258766</v>
+        <v>0.8393029960079375</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.680861939437662</v>
+        <v>0.708967433200641</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3744847508212104</v>
+        <v>1.169074620409589</v>
       </c>
       <c r="C19">
-        <v>0.08464912861265361</v>
+        <v>0.1458099948731331</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2090047353246973</v>
+        <v>0.480766175823355</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.3470504701625003</v>
+        <v>0.1749772344320633</v>
       </c>
       <c r="H19">
-        <v>0.5261168335465669</v>
+        <v>0.1859874781904125</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3740583394435077</v>
+        <v>1.183899775015192</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2808898962028437</v>
+        <v>0.8317973875624745</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.682546738960582</v>
+        <v>0.7099420255616877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3885165283534207</v>
+        <v>1.213770670423344</v>
       </c>
       <c r="C20">
-        <v>0.08575921518480811</v>
+        <v>0.1490909343058178</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2137752518449432</v>
+        <v>0.5005391896242273</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3454673154440542</v>
+        <v>0.1751412093324163</v>
       </c>
       <c r="H20">
-        <v>0.5241010113222799</v>
+        <v>0.1837762084543542</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3879744074875191</v>
+        <v>1.227090433306188</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2904760109191216</v>
+        <v>0.8656218860458509</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.675047896501425</v>
+        <v>0.7057872673900221</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4355807925996658</v>
+        <v>1.364251694718604</v>
       </c>
       <c r="C21">
-        <v>0.08948896661148353</v>
+        <v>0.1601593284956095</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2299717906703123</v>
+        <v>0.5682058231522475</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3405290801318372</v>
+        <v>0.1769656394358066</v>
       </c>
       <c r="H21">
-        <v>0.5176407032335106</v>
+        <v>0.1770703538532175</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4346043303048361</v>
+        <v>1.372417789902414</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3227349177245316</v>
+        <v>0.9801927717913514</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.651306173452355</v>
+        <v>0.6960344592517202</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.466276880103635</v>
+        <v>1.462886559094215</v>
       </c>
       <c r="C22">
-        <v>0.09192622904549808</v>
+        <v>0.1674303335151706</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2406836422463243</v>
+        <v>0.6134559062147957</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.337586525823383</v>
+        <v>0.1791753505092188</v>
       </c>
       <c r="H22">
-        <v>0.5136515921806648</v>
+        <v>0.1732566466514527</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4649825589042393</v>
+        <v>1.467607156598575</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3438554459800613</v>
+        <v>1.05585967378854</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.636875034319758</v>
+        <v>0.6930022527497925</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4498997735099408</v>
+        <v>1.410213231832699</v>
       </c>
       <c r="C23">
-        <v>0.09062547056808512</v>
+        <v>0.1635460116517464</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2349548839650595</v>
+        <v>0.5892039962586466</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.3391308966240132</v>
+        <v>0.1778983663034666</v>
       </c>
       <c r="H23">
-        <v>0.5157593228132242</v>
+        <v>0.1752380684247044</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4487782113525896</v>
+        <v>1.416780216997921</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3325796231424647</v>
+        <v>1.015396113007604</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.644477742599207</v>
+        <v>0.6943010878884053</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3877462655084685</v>
+        <v>1.211315156041167</v>
       </c>
       <c r="C24">
-        <v>0.08569825357876937</v>
+        <v>0.1489106009847063</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2135126476211653</v>
+        <v>0.499448978717254</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3455528240048551</v>
+        <v>0.1751275813328519</v>
       </c>
       <c r="H24">
-        <v>0.5242105349818047</v>
+        <v>0.1838949908921776</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3872106702347651</v>
+        <v>1.224717933443287</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2899493947649603</v>
+        <v>0.8637611667922656</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.675454235222801</v>
+        <v>0.7060001093500148</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3204522763018076</v>
+        <v>0.9976431062349889</v>
       </c>
       <c r="C25">
-        <v>0.08038425704698682</v>
+        <v>0.1332601130944369</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1909196774685711</v>
+        <v>0.4063597494014317</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3536968416154025</v>
+        <v>0.1760755187249288</v>
       </c>
       <c r="H25">
-        <v>0.5343265486155957</v>
+        <v>0.1954887309445965</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.320402977929632</v>
+        <v>1.018125206769156</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2441293916629803</v>
+        <v>0.7029604390808899</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.713513143224333</v>
+        <v>0.7316610001142578</v>
       </c>
     </row>
   </sheetData>
